--- a/Benchmark_model/Benchmark.xlsx
+++ b/Benchmark_model/Benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA18EF-C3B1-4104-A6D6-1FC93D84CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EABFF9-DDE2-479C-8BBC-B2FD79266677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E502B48-C227-4812-A88E-76754F51DB72}"/>
   </bookViews>
@@ -36,25 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="34">
-  <si>
-    <t>Tên tập Dataset</t>
-  </si>
-  <si>
-    <t>Số lớp</t>
-  </si>
-  <si>
-    <t>Mô hình</t>
-  </si>
-  <si>
-    <t>Thư viện</t>
-  </si>
-  <si>
-    <t>Số vòng lặp mong muốn</t>
-  </si>
-  <si>
-    <t>Số vòng lặp thực tế</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="32">
   <si>
     <t>patient</t>
   </si>
@@ -75,9 +57,6 @@
   </si>
   <si>
     <t>Resnet50</t>
-  </si>
-  <si>
-    <t>Keras</t>
   </si>
   <si>
     <t>Resnet101</t>
@@ -137,7 +116,22 @@
     <t>Garbage classification_3 </t>
   </si>
   <si>
-    <t>Thời gian trung bình 1 epoch (s)</t>
+    <t>Dataset's name</t>
+  </si>
+  <si>
+    <t>num of classes</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>The desired num of epochs</t>
+  </si>
+  <si>
+    <t>The actual num of epochs</t>
+  </si>
+  <si>
+    <t>The average time per epoch</t>
   </si>
 </sst>
 </file>
@@ -284,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +299,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,10 +323,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,689 +622,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872097FC-E8D6-4A48-B958-9A10C7AC5EF1}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="H2">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="I2">
-        <v>0.94599999999999995</v>
-      </c>
       <c r="J2">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="K2">
         <v>0.94230800000000003</v>
       </c>
-      <c r="L2" s="16">
+      <c r="K2" s="16">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>0.93</v>
       </c>
       <c r="H3">
-        <v>0.93</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="I3">
-        <v>0.93500000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="J3">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="K3">
         <v>0.92948699999999995</v>
       </c>
-      <c r="L3" s="16">
+      <c r="K3" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="H4">
-        <v>0.91100000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I4">
-        <v>0.91600000000000004</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J4">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="K4">
         <v>0.90812000000000004</v>
       </c>
-      <c r="L4" s="16">
+      <c r="K4" s="16">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="H5">
-        <v>0.69899999999999995</v>
+        <v>0.626</v>
       </c>
       <c r="I5">
-        <v>0.626</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="J5">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K5">
         <v>0.77924599999999999</v>
       </c>
-      <c r="L5" s="16">
+      <c r="K5" s="16">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="H6">
-        <v>0.94410000000000005</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="I6">
-        <v>0.94469999999999998</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="J6">
-        <v>0.94420000000000004</v>
-      </c>
-      <c r="K6">
         <v>0.94444399999999995</v>
       </c>
-      <c r="L6" s="16">
+      <c r="K6" s="16">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="F7">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>0.94</v>
       </c>
       <c r="H7">
-        <v>0.94</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="I7">
-        <v>0.94499999999999995</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="J7">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="K7">
         <v>0.95230400000000004</v>
       </c>
-      <c r="L7" s="16">
+      <c r="K7" s="16">
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="F8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="H8">
-        <v>0.95299999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="I8">
         <v>0.95099999999999996</v>
       </c>
       <c r="J8">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="K8">
         <v>0.96257199999999998</v>
       </c>
-      <c r="L8" s="16">
+      <c r="K8" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H9">
-        <v>0.91700000000000004</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I9">
         <v>0.91500000000000004</v>
       </c>
       <c r="J9">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="K9">
         <v>0.94433800000000001</v>
       </c>
-      <c r="L9" s="16">
+      <c r="K9" s="16">
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="H10">
-        <v>0.74299999999999999</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="I10">
-        <v>0.72199999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="J10">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="K10">
         <v>0.79700899999999997</v>
       </c>
-      <c r="L10" s="16">
+      <c r="K10" s="16">
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F11">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="H11">
-        <v>0.94420000000000004</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="I11">
-        <v>0.94030000000000002</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="J11">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="K11">
         <v>0.95729399999999998</v>
       </c>
-      <c r="L11" s="16">
+      <c r="K11" s="16">
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.80346099999999998</v>
+      </c>
+      <c r="K12" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>62</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>0.80549999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="J12">
-        <v>0.80420000000000003</v>
-      </c>
-      <c r="K12">
-        <v>0.80346099999999998</v>
-      </c>
-      <c r="L12" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="H13">
-        <v>0.82930000000000004</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="I13">
-        <v>0.82350000000000001</v>
+        <v>0.82579999999999998</v>
       </c>
       <c r="J13">
-        <v>0.82579999999999998</v>
-      </c>
-      <c r="K13">
         <v>0.82323900000000005</v>
       </c>
-      <c r="L13" s="16">
+      <c r="K13" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="I14">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="J14">
+        <v>0.79728100000000002</v>
+      </c>
+      <c r="K14" s="16">
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
-      <c r="F14">
-        <v>71</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>0.79949999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.79779999999999995</v>
-      </c>
-      <c r="J14">
-        <v>0.79710000000000003</v>
-      </c>
-      <c r="K14">
-        <v>0.79728100000000002</v>
-      </c>
-      <c r="L14" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>0.58030000000000004</v>
       </c>
       <c r="H15">
-        <v>0.58030000000000004</v>
+        <v>0.56420000000000003</v>
       </c>
       <c r="I15">
-        <v>0.56420000000000003</v>
+        <v>0.55489999999999995</v>
       </c>
       <c r="J15">
-        <v>0.55489999999999995</v>
-      </c>
-      <c r="K15">
         <v>0.56613100000000005</v>
       </c>
-      <c r="L15" s="16">
+      <c r="K15" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.8246</v>
+      </c>
+      <c r="J16">
+        <v>0.82323900000000005</v>
+      </c>
+      <c r="K16" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E16">
-        <v>200</v>
-      </c>
-      <c r="F16">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.82279999999999998</v>
-      </c>
-      <c r="J16">
-        <v>0.8246</v>
-      </c>
-      <c r="K16">
-        <v>0.82323900000000005</v>
-      </c>
-      <c r="L16" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
       </c>
       <c r="E17">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="F17">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="H17">
         <v>0.97529999999999994</v>
       </c>
       <c r="I17">
-        <v>0.97529999999999994</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="J17">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="K17">
         <v>0.97222200000000003</v>
       </c>
-      <c r="L17" s="16">
+      <c r="K17" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="F18">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1324,414 +1265,381 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="16">
+      <c r="K18" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>138</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>0.9708</v>
+      </c>
+      <c r="H19">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="I19">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J19">
+        <v>0.97224699999999997</v>
+      </c>
+      <c r="K19" s="16">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19">
-        <v>138</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>0.9708</v>
-      </c>
-      <c r="I19">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="J19">
-        <v>0.97219999999999995</v>
-      </c>
-      <c r="K19">
-        <v>0.97224699999999997</v>
-      </c>
-      <c r="L19" s="16">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>0.7722</v>
+      </c>
+      <c r="H20">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="K20" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-      <c r="F20">
-        <v>144</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>0.7722</v>
-      </c>
-      <c r="I20">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="J20">
-        <v>0.76290000000000002</v>
-      </c>
-      <c r="K20">
-        <v>0.77777799999999997</v>
-      </c>
-      <c r="L20" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
       </c>
       <c r="E21">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="F21">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H21">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="I21">
         <v>0.98719999999999997</v>
       </c>
-      <c r="I21">
-        <v>0.98770000000000002</v>
-      </c>
       <c r="J21">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="K21">
         <v>0.98611099999999996</v>
       </c>
-      <c r="L21" s="16">
+      <c r="K21" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F22">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>0.96030000000000004</v>
       </c>
       <c r="H22">
-        <v>0.96030000000000004</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="I22">
-        <v>0.94720000000000004</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="J22">
-        <v>0.93610000000000004</v>
-      </c>
-      <c r="K22">
         <v>0.95673200000000003</v>
       </c>
-      <c r="L22" s="16">
+      <c r="K22" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>0.9597</v>
+      </c>
+      <c r="H23">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="I23">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="J23">
+        <v>0.96927399999999997</v>
+      </c>
+      <c r="K23" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>200</v>
-      </c>
-      <c r="F23">
-        <v>61</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>0.9597</v>
-      </c>
-      <c r="I23">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="J23">
-        <v>0.95830000000000004</v>
-      </c>
-      <c r="K23">
-        <v>0.96927399999999997</v>
-      </c>
-      <c r="L23" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="H24">
-        <v>0.94259999999999999</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="I24">
-        <v>0.93179999999999996</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="J24">
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="K24">
         <v>0.94111299999999998</v>
       </c>
-      <c r="L24" s="16">
+      <c r="K24" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
       </c>
       <c r="E25">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="F25">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>0.7581</v>
       </c>
       <c r="H25">
-        <v>0.7581</v>
+        <v>0.77490000000000003</v>
       </c>
       <c r="I25">
-        <v>0.77490000000000003</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="J25">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="K25">
         <v>0.76821600000000001</v>
       </c>
-      <c r="L25" s="16">
+      <c r="K25" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
       </c>
       <c r="E26">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="F26">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="H26">
-        <v>0.96220000000000006</v>
+        <v>0.95550000000000002</v>
       </c>
       <c r="I26">
-        <v>0.95550000000000002</v>
+        <v>0.96389999999999998</v>
       </c>
       <c r="J26">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="K26">
         <v>0.96891099999999997</v>
       </c>
-      <c r="L26" s="16">
+      <c r="K26" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F27">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="H27">
-        <v>0.98209999999999997</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="I27">
-        <v>0.97219999999999995</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J27">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K27">
         <v>0.98979600000000001</v>
       </c>
-      <c r="L27" s="16">
+      <c r="K27" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>0.9667</v>
       </c>
       <c r="H28">
-        <v>0.9667</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="I28">
-        <v>0.96550000000000002</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="J28">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="K28">
         <v>0.97959200000000002</v>
       </c>
-      <c r="L28" s="16">
+      <c r="K28" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F29">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="H29">
         <v>0.96760000000000002</v>
@@ -1740,378 +1648,348 @@
         <v>0.96760000000000002</v>
       </c>
       <c r="J29">
-        <v>0.96760000000000002</v>
-      </c>
-      <c r="K29">
         <v>0.96938800000000003</v>
       </c>
-      <c r="L29" s="16">
+      <c r="K29" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
       </c>
       <c r="E30">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>50</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H30">
-        <v>0.24299999999999999</v>
+        <v>0.40550000000000003</v>
       </c>
       <c r="I30">
-        <v>0.40550000000000003</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="J30">
-        <v>0.29949999999999999</v>
-      </c>
-      <c r="K30">
         <v>0.44897999999999999</v>
       </c>
-      <c r="L30" s="16">
+      <c r="K30" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
       </c>
       <c r="E31">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="F31">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>0.97419999999999995</v>
       </c>
       <c r="H31">
-        <v>0.97419999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I31">
-        <v>0.95299999999999996</v>
+        <v>0.9627</v>
       </c>
       <c r="J31">
-        <v>0.9627</v>
-      </c>
-      <c r="K31">
         <v>0.97959200000000002</v>
       </c>
-      <c r="L31" s="16">
+      <c r="K31" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>67</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="H32">
+        <v>0.8911</v>
+      </c>
+      <c r="I32">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="J32">
+        <v>0.96617299999999995</v>
+      </c>
+      <c r="K32" s="16">
         <v>13</v>
       </c>
-      <c r="E32">
-        <v>200</v>
-      </c>
-      <c r="F32">
-        <v>67</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>0.91290000000000004</v>
-      </c>
-      <c r="I32">
-        <v>0.8911</v>
-      </c>
-      <c r="J32">
-        <v>0.89559999999999995</v>
-      </c>
-      <c r="K32">
-        <v>0.96617299999999995</v>
-      </c>
-      <c r="L32" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
       </c>
       <c r="E33">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="F33">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="H33">
-        <v>0.86499999999999999</v>
+        <v>0.85319999999999996</v>
       </c>
       <c r="I33">
-        <v>0.85319999999999996</v>
+        <v>0.85819999999999996</v>
       </c>
       <c r="J33">
-        <v>0.85819999999999996</v>
-      </c>
-      <c r="K33">
         <v>0.96828800000000004</v>
       </c>
-      <c r="L33" s="16">
+      <c r="K33" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
       </c>
       <c r="E34">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="H34">
-        <v>0.86980000000000002</v>
+        <v>0.86229999999999996</v>
       </c>
       <c r="I34">
-        <v>0.86229999999999996</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="J34">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="K34">
         <v>0.953488</v>
       </c>
-      <c r="L34" s="16">
+      <c r="K34" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="H35">
+        <v>0.4778</v>
+      </c>
+      <c r="I35">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.81183899999999998</v>
+      </c>
+      <c r="K35" s="16">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>200</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35">
-        <v>0.51170000000000004</v>
-      </c>
-      <c r="I35">
-        <v>0.4778</v>
-      </c>
-      <c r="J35">
-        <v>0.46660000000000001</v>
-      </c>
-      <c r="K35">
-        <v>0.81183899999999998</v>
-      </c>
-      <c r="L35" s="16">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="H36">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="I36">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="J36">
+        <v>0.96828800000000004</v>
+      </c>
+      <c r="K36" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>200</v>
-      </c>
-      <c r="F36">
-        <v>64</v>
-      </c>
-      <c r="G36">
-        <v>50</v>
-      </c>
-      <c r="H36">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="I36">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="J36">
-        <v>0.89849999999999997</v>
-      </c>
-      <c r="K36">
-        <v>0.96828800000000004</v>
-      </c>
-      <c r="L36" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="H37">
-        <v>0.98109999999999997</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="I37">
-        <v>0.98089999999999999</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="J37">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="K37">
         <v>0.98036500000000004</v>
       </c>
-      <c r="L37" s="16">
+      <c r="K37" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
       </c>
       <c r="E38">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F38">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>0.9849</v>
       </c>
       <c r="H38">
-        <v>0.9849</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="I38">
-        <v>0.98550000000000004</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="J38">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="K38">
         <v>0.984572</v>
       </c>
-      <c r="L38" s="16">
+      <c r="K38" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
       </c>
       <c r="E39">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F39">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H39">
         <v>0.97299999999999998</v>
@@ -2120,1605 +1998,1476 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="J39">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="K39">
         <v>0.97194999999999998</v>
       </c>
-      <c r="L39" s="16">
+      <c r="K39" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
       </c>
       <c r="E40">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="F40">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>0.7127</v>
       </c>
       <c r="H40">
-        <v>0.7127</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="I40">
-        <v>0.67579999999999996</v>
+        <v>0.6774</v>
       </c>
       <c r="J40">
-        <v>0.6774</v>
-      </c>
-      <c r="K40">
         <v>0.67251099999999997</v>
       </c>
-      <c r="L40" s="16">
+      <c r="K40" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>200</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F41">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H41">
-        <v>0.98640000000000005</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="I41">
-        <v>0.98760000000000003</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="J41">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="K41">
         <v>0.986676</v>
       </c>
-      <c r="L41" s="16">
+      <c r="K41" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F42">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="H42">
-        <v>0.96619999999999995</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="I42">
-        <v>0.96489999999999998</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="J42">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="K42">
         <v>0.96976099999999998</v>
       </c>
-      <c r="L42" s="16">
+      <c r="K42" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>200</v>
       </c>
       <c r="E43">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="F43">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>0.96209999999999996</v>
       </c>
       <c r="H43">
-        <v>0.96209999999999996</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="I43">
-        <v>0.96109999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="J43">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="K43">
         <v>0.96806899999999996</v>
       </c>
-      <c r="L43" s="16">
+      <c r="K43" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>0.95709999999999995</v>
       </c>
       <c r="H44">
-        <v>0.95709999999999995</v>
+        <v>0.94910000000000005</v>
       </c>
       <c r="I44">
-        <v>0.94910000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="J44">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="K44">
         <v>0.96087999999999996</v>
       </c>
-      <c r="L44" s="16">
+      <c r="K44" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="F45">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>0.75949999999999995</v>
       </c>
       <c r="H45">
-        <v>0.75949999999999995</v>
+        <v>0.67969999999999997</v>
       </c>
       <c r="I45">
-        <v>0.67969999999999997</v>
+        <v>0.70050000000000001</v>
       </c>
       <c r="J45">
-        <v>0.70050000000000001</v>
-      </c>
-      <c r="K45">
         <v>0.74709199999999998</v>
       </c>
-      <c r="L45" s="16">
+      <c r="K45" s="16">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
       </c>
       <c r="E46">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="F46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="H46">
-        <v>0.96350000000000002</v>
+        <v>0.96460000000000001</v>
       </c>
       <c r="I46">
-        <v>0.96460000000000001</v>
+        <v>0.96360000000000001</v>
       </c>
       <c r="J46">
-        <v>0.96360000000000001</v>
-      </c>
-      <c r="K46">
         <v>0.96912699999999996</v>
       </c>
-      <c r="L46" s="16">
+      <c r="K46" s="16">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
       </c>
       <c r="E47">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F47">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="H47">
-        <v>0.88009999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="I47">
-        <v>0.86799999999999999</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="J47">
-        <v>0.87239999999999995</v>
-      </c>
-      <c r="K47">
         <v>0.90118600000000004</v>
       </c>
-      <c r="L47" s="16">
+      <c r="K47" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
       </c>
       <c r="E48">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="F48">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>0.87509999999999999</v>
       </c>
       <c r="H48">
-        <v>0.87509999999999999</v>
+        <v>0.85519999999999996</v>
       </c>
       <c r="I48">
-        <v>0.85519999999999996</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="J48">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="K48">
         <v>0.89723299999999995</v>
       </c>
-      <c r="L48" s="16">
+      <c r="K48" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
       </c>
       <c r="E49">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F49">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>0.81210000000000004</v>
       </c>
       <c r="H49">
-        <v>0.81210000000000004</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="I49">
-        <v>0.82120000000000004</v>
+        <v>0.8165</v>
       </c>
       <c r="J49">
-        <v>0.8165</v>
-      </c>
-      <c r="K49">
         <v>0.83794500000000005</v>
       </c>
-      <c r="L49" s="16">
+      <c r="K49" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>200</v>
       </c>
       <c r="E50">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="F50">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="H50">
-        <v>0.48089999999999999</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="I50">
-        <v>0.47560000000000002</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="J50">
-        <v>0.44130000000000003</v>
-      </c>
-      <c r="K50">
         <v>0.47826099999999999</v>
       </c>
-      <c r="L50" s="16">
+      <c r="K50" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
       </c>
       <c r="E51">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="F51">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="H51">
-        <v>0.86180000000000001</v>
+        <v>0.86260000000000003</v>
       </c>
       <c r="I51">
-        <v>0.86260000000000003</v>
+        <v>0.86070000000000002</v>
       </c>
       <c r="J51">
-        <v>0.86070000000000002</v>
-      </c>
-      <c r="K51">
         <v>0.88735200000000003</v>
       </c>
-      <c r="L51" s="16">
+      <c r="K51" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F52">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>0.96060000000000001</v>
       </c>
       <c r="H52">
-        <v>0.96060000000000001</v>
+        <v>0.96040000000000003</v>
       </c>
       <c r="I52">
         <v>0.96040000000000003</v>
       </c>
       <c r="J52">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="K52">
         <v>0.96016599999999996</v>
       </c>
-      <c r="L52" s="16">
+      <c r="K52" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
       </c>
       <c r="E53">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F53">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="H53">
-        <v>0.97119999999999995</v>
+        <v>0.97</v>
       </c>
       <c r="I53">
-        <v>0.97</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="J53">
-        <v>0.97050000000000003</v>
-      </c>
-      <c r="K53">
         <v>0.97012399999999999</v>
       </c>
-      <c r="L53" s="16">
+      <c r="K53" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <v>50</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>0.9425</v>
       </c>
       <c r="H54">
-        <v>0.9425</v>
+        <v>0.94210000000000005</v>
       </c>
       <c r="I54">
-        <v>0.94210000000000005</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="J54">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="K54">
         <v>0.941079</v>
       </c>
-      <c r="L54" s="16">
+      <c r="K54" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="F55">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="H55">
-        <v>0.70350000000000001</v>
+        <v>0.68169999999999997</v>
       </c>
       <c r="I55">
-        <v>0.68169999999999997</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="J55">
-        <v>0.67959999999999998</v>
-      </c>
-      <c r="K55">
         <v>0.68298800000000004</v>
       </c>
-      <c r="L55" s="16">
+      <c r="K55" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
       </c>
       <c r="E56">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="F56">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="H56">
-        <v>0.96609999999999996</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="I56">
-        <v>0.96530000000000005</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="J56">
-        <v>0.96560000000000001</v>
-      </c>
-      <c r="K56">
         <v>0.96514500000000003</v>
       </c>
-      <c r="L56" s="16">
+      <c r="K56" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
       </c>
       <c r="E57">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="F57">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="H57">
-        <v>0.97929999999999995</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="I57">
-        <v>0.97570000000000001</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="J57">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="K57">
         <v>0.97821599999999997</v>
       </c>
-      <c r="L57" s="16">
+      <c r="K57" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>200</v>
       </c>
       <c r="E58">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="F58">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="H58">
-        <v>0.98160000000000003</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="I58">
-        <v>0.98370000000000002</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="J58">
-        <v>0.98260000000000003</v>
-      </c>
-      <c r="K58">
         <v>0.983402</v>
       </c>
-      <c r="L58" s="16">
+      <c r="K58" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
       </c>
       <c r="E59">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F59">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="H59">
-        <v>0.95509999999999995</v>
+        <v>0.95350000000000001</v>
       </c>
       <c r="I59">
-        <v>0.95350000000000001</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="J59">
-        <v>0.95420000000000005</v>
-      </c>
-      <c r="K59">
         <v>0.95435700000000001</v>
       </c>
-      <c r="L59" s="16">
+      <c r="K59" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
       </c>
       <c r="E60">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="F60">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="H60">
-        <v>0.90100000000000002</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="I60">
-        <v>0.88970000000000005</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="J60">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="K60">
         <v>0.89522800000000002</v>
       </c>
-      <c r="L60" s="16">
+      <c r="K60" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>200</v>
       </c>
       <c r="E61">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="F61">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="H61">
-        <v>0.98129999999999995</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="I61">
-        <v>0.98099999999999998</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="J61">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="K61">
         <v>0.98236500000000004</v>
       </c>
-      <c r="L61" s="16">
+      <c r="K61" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B62" s="14">
         <v>6</v>
       </c>
       <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="E62">
+        <v>57</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="H62">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="I62">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="J62">
+        <v>0.89130399999999999</v>
+      </c>
+      <c r="K62" s="16">
         <v>12</v>
       </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>200</v>
-      </c>
-      <c r="F62">
-        <v>57</v>
-      </c>
-      <c r="G62">
-        <v>50</v>
-      </c>
-      <c r="H62">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="I62">
-        <v>0.84589999999999999</v>
-      </c>
-      <c r="J62">
-        <v>0.84760000000000002</v>
-      </c>
-      <c r="K62">
-        <v>0.89130399999999999</v>
-      </c>
-      <c r="L62" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="F63">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>0.85509999999999997</v>
       </c>
       <c r="H63">
-        <v>0.85509999999999997</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="I63">
-        <v>0.85329999999999995</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="J63">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="K63">
         <v>0.87746999999999997</v>
       </c>
-      <c r="L63" s="16">
+      <c r="K63" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>200</v>
       </c>
       <c r="E64">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="F64">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G64">
-        <v>50</v>
+        <v>0.80810000000000004</v>
       </c>
       <c r="H64">
-        <v>0.80810000000000004</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="I64">
-        <v>0.80549999999999999</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="J64">
-        <v>0.80589999999999995</v>
-      </c>
-      <c r="K64">
         <v>0.84387400000000001</v>
       </c>
-      <c r="L64" s="16">
+      <c r="K64" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>200</v>
       </c>
       <c r="E65">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F65">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>0.66830000000000001</v>
       </c>
       <c r="H65">
-        <v>0.66830000000000001</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="I65">
-        <v>0.50109999999999999</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="J65">
-        <v>0.50019999999999998</v>
-      </c>
-      <c r="K65">
         <v>0.53359699999999999</v>
       </c>
-      <c r="L65" s="16">
+      <c r="K65" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
       </c>
       <c r="E66">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="F66">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>0.8821</v>
       </c>
       <c r="H66">
-        <v>0.8821</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="I66">
-        <v>0.88019999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J66">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="K66">
         <v>0.90316200000000002</v>
       </c>
-      <c r="L66" s="16">
+      <c r="K66" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>200</v>
       </c>
       <c r="E67">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="F67">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="H67">
-        <v>0.91120000000000001</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="I67">
-        <v>0.89439999999999997</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="J67">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="K67">
         <v>0.93020199999999997</v>
       </c>
-      <c r="L67" s="16">
+      <c r="K67" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>200</v>
       </c>
       <c r="E68">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F68">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H68">
-        <v>0.92200000000000004</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="I68">
-        <v>0.89329999999999998</v>
+        <v>0.90629999999999999</v>
       </c>
       <c r="J68">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="K68">
         <v>0.93352500000000005</v>
       </c>
-      <c r="L68" s="16">
+      <c r="K68" s="16">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
       </c>
       <c r="E69">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="F69">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G69">
-        <v>50</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="H69">
-        <v>0.88619999999999999</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="I69">
-        <v>0.88370000000000004</v>
+        <v>0.88490000000000002</v>
       </c>
       <c r="J69">
-        <v>0.88490000000000002</v>
-      </c>
-      <c r="K69">
         <v>0.91890099999999997</v>
       </c>
-      <c r="L69" s="16">
+      <c r="K69" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>200</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="F70">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G70">
-        <v>50</v>
+        <v>0.7782</v>
       </c>
       <c r="H70">
-        <v>0.7782</v>
+        <v>0.69969999999999999</v>
       </c>
       <c r="I70">
-        <v>0.69969999999999999</v>
+        <v>0.7147</v>
       </c>
       <c r="J70">
-        <v>0.7147</v>
-      </c>
-      <c r="K70">
         <v>0.81542199999999998</v>
       </c>
-      <c r="L70" s="16">
+      <c r="K70" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="F71">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="H71">
-        <v>0.90680000000000005</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="I71">
-        <v>0.91080000000000005</v>
+        <v>0.90286999999999995</v>
       </c>
       <c r="J71">
-        <v>0.90286999999999995</v>
-      </c>
-      <c r="K71">
         <v>0.93507600000000002</v>
       </c>
-      <c r="L71" s="16">
+      <c r="K71" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B72">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>200</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F72">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>0.95089999999999997</v>
       </c>
       <c r="H72">
-        <v>0.95089999999999997</v>
+        <v>0.9425</v>
       </c>
       <c r="I72">
-        <v>0.9425</v>
+        <v>0.94789999999999996</v>
       </c>
       <c r="J72">
-        <v>0.94789999999999996</v>
-      </c>
-      <c r="K72">
         <v>0.96565800000000002</v>
       </c>
-      <c r="L72" s="16">
+      <c r="K72" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B73">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>200</v>
       </c>
       <c r="E73">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="F73">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>0.95909999999999995</v>
       </c>
       <c r="H73">
-        <v>0.95909999999999995</v>
+        <v>0.9546</v>
       </c>
       <c r="I73">
-        <v>0.9546</v>
+        <v>0.95640000000000003</v>
       </c>
       <c r="J73">
-        <v>0.95640000000000003</v>
-      </c>
-      <c r="K73">
         <v>0.97006899999999996</v>
       </c>
-      <c r="L73" s="16">
+      <c r="K73" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B74">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>200</v>
       </c>
       <c r="E74">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="F74">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="H74">
-        <v>0.93689999999999996</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="I74">
-        <v>0.94810000000000005</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="J74">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="K74">
         <v>0.95290399999999997</v>
       </c>
-      <c r="L74" s="16">
+      <c r="K74" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B75">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>200</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="F75">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G75">
-        <v>50</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="H75">
-        <v>0.71799999999999997</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="I75">
-        <v>0.68840000000000001</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="J75">
-        <v>0.67989999999999995</v>
-      </c>
-      <c r="K75">
         <v>0.75677399999999995</v>
       </c>
-      <c r="L75" s="16">
+      <c r="K75" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>200</v>
       </c>
       <c r="E76">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="F76">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>0.9556</v>
       </c>
       <c r="H76">
-        <v>0.9556</v>
+        <v>0.95550000000000002</v>
       </c>
       <c r="I76">
-        <v>0.95550000000000002</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="J76">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="K76">
         <v>0.96943900000000005</v>
       </c>
-      <c r="L76" s="16">
+      <c r="K76" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B77">
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
       </c>
       <c r="E77">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="F77">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="H77">
-        <v>0.94230000000000003</v>
+        <v>0.95860000000000001</v>
       </c>
       <c r="I77">
-        <v>0.95860000000000001</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="J77">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="K77">
         <v>0.95841299999999996</v>
       </c>
-      <c r="L77" s="16">
+      <c r="K77" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B78">
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
       </c>
       <c r="E78">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F78">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>0.9597</v>
       </c>
       <c r="H78">
-        <v>0.9597</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="I78">
-        <v>0.97689999999999999</v>
+        <v>0.96319999999999995</v>
       </c>
       <c r="J78">
-        <v>0.96319999999999995</v>
-      </c>
-      <c r="K78">
         <v>0.96224799999999999</v>
       </c>
-      <c r="L78" s="16">
+      <c r="K78" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B79">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>200</v>
       </c>
       <c r="E79">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F79">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G79">
-        <v>50</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="H79">
-        <v>0.89629999999999999</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="I79">
-        <v>0.91369999999999996</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="J79">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="K79">
         <v>0.91353399999999996</v>
       </c>
-      <c r="L79" s="16">
+      <c r="K79" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B80">
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F80">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>0.79820000000000002</v>
       </c>
       <c r="H80">
-        <v>0.79820000000000002</v>
+        <v>0.77490000000000003</v>
       </c>
       <c r="I80">
-        <v>0.77490000000000003</v>
+        <v>0.84009999999999996</v>
       </c>
       <c r="J80">
-        <v>0.84009999999999996</v>
-      </c>
-      <c r="K80">
         <v>0.82699999999999996</v>
       </c>
-      <c r="L80" s="16">
+      <c r="K80" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B81">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>200</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="F81">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>0.93879999999999997</v>
       </c>
       <c r="H81">
-        <v>0.93879999999999997</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="I81">
-        <v>0.92130000000000001</v>
+        <v>0.91690000000000005</v>
       </c>
       <c r="J81">
-        <v>0.91690000000000005</v>
-      </c>
-      <c r="K81">
         <v>0.92874100000000004</v>
       </c>
-      <c r="L81" s="16">
+      <c r="K81" s="16">
         <v>13</v>
       </c>
     </row>
@@ -3728,6 +3477,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cd74209-f148-4963-a855-b5c701a416ab">
@@ -3735,15 +3493,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3952,6 +3701,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08F865E5-2C0B-4B67-AE1C-6DA8B260C8D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04BA86CE-D6EA-4E3F-B46B-00E55A218CCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3964,14 +3721,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="3587f7e8-e2fd-4415-808e-6ae9f3249d2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08F865E5-2C0B-4B67-AE1C-6DA8B260C8D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
